--- a/biology/Zoologie/Cobitis/Cobitis.xlsx
+++ b/biology/Zoologie/Cobitis/Cobitis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cobitis est un genre paléarctique de poissons à nageoires rayonnées de la famille des Cobitidés. Il contient diverses espèces de loches épineuses, y compris la bien connue Loche de rivière  (C. taenia) de l'ouest de l'Eurasie tempérée.
-Ce genre regroupait près de 60 espèces à la mi-2008, au moins deux non-décrites sont également connues[1].
-Un certain nombre d'espèces que regroupait également le genre et donc très proches, sont aujourd'hui passées sous le genre Sabanejewia[2].
+Ce genre regroupait près de 60 espèces à la mi-2008, au moins deux non-décrites sont également connues.
+Un certain nombre d'espèces que regroupait également le genre et donc très proches, sont aujourd'hui passées sous le genre Sabanejewia.
 </t>
         </is>
       </c>
@@ -513,38 +525,40 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (07 juillet 2015)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (07 juillet 2015) :
 Cobitis albicoloris Chichkoff, 1932
-Cobitis amphilekta Vasil'eva &amp; Vasil'ev, 2012[4]
+Cobitis amphilekta Vasil'eva &amp; Vasil'ev, 2012
 Cobitis arachthosensis Economidis &amp; Nalbant, 1996
 Cobitis arenae (Lin, 1934)
-Cobitis australis Chen, Chen &amp; He, 2013[5]
+Cobitis australis Chen, Chen &amp; He, 2013
 Cobitis bilineata Canestrini, 1865
 Cobitis bilseli Battalgil, 1942
 Cobitis biwae Jordan &amp; Snyder, 1901
 Cobitis calderoni Băcescu, 1962
 Cobitis choii Kim &amp; Son, 1984
-Cobitis crassicauda Chen &amp; Chen, 2013[6]
+Cobitis crassicauda Chen &amp; Chen, 2013
 Cobitis dalmatina Karaman, 1928
 Cobitis dolichorhynchus Nichols, 1918
 Cobitis elazigensis Coad &amp; Sarieyyüpoglu, 1988
 Cobitis elongata Heckel &amp; Kner, 1858
-Cobitis elongatoides Băcescu &amp; Mayer, 1969[1]
+Cobitis elongatoides Băcescu &amp; Mayer, 1969
 Cobitis evreni Erk'akan, Özeren &amp; Nalbant, 2008
 Cobitis fahirae Erk'akan, Atalay-Ekmekçi &amp; Nalbant, 1998
-Cobitis faridpaki Mousavi-Sabet, Vasil'eva, Vatandoust &amp; Vasil'ev, 2011[7]
-Cobitis fasciola Chen &amp; Chen, 2013[6]
+Cobitis faridpaki Mousavi-Sabet, Vasil'eva, Vatandoust &amp; Vasil'ev, 2011
+Cobitis fasciola Chen &amp; Chen, 2013
 Cobitis gladkovi Vasil'ev &amp; Vasil'eva, 2008
 Cobitis guttatus (Nguyen, 2005)
 Cobitis hankugensis Kim, Park, Son &amp; Nalbant, 2003
 Cobitis hellenica Economidis &amp; Nalbant, 1996
 Cobitis illyrica Freyhof &amp; Stelbrink, 2007
 Cobitis jadovaensis Mustafic &amp; Mrakovcic, 2008
-Cobitis kaibarai Nakajima, 2012[8]
+Cobitis kaibarai Nakajima, 2012
 Cobitis kellei Erk'akan, Atalay-Ekmekçi &amp; Nalbant, 1998
-Cobitis keyvani Sabet, Yerli, Vatandoust, Özeren &amp; Moradkhani, 2012[9]
+Cobitis keyvani Sabet, Yerli, Vatandoust, Özeren &amp; Moradkhani, 2012
 Cobitis kurui Erk'akan, Atalay-Ekmekçi &amp; Nalbant, 1998 - (précédemment inclus dans C. vardarensis)
 Cobitis laoensis (Sauvage, 1878)
 Cobitis lebedevi Vasil'eva &amp; Vasil'ev, 1985
@@ -553,7 +567,7 @@
 Cobitis longitaeniatus Ngô, 2008
 Cobitis lutheri Rendahl, 1935
 Cobitis macrostigma Dabry de Thiersant, 1872
-Cobitis magnostriata Nakajima, 2012[8]
+Cobitis magnostriata Nakajima, 2012
 Cobitis maroccana Pellegrin, 1929
 Cobitis matsubarai Okada &amp; Ikeda, 1939
 Cobitis megaspila Nalbant, 1993
@@ -581,13 +595,13 @@
 Cobitis sinensis Sauvage &amp; Dabry de Thiersant, 1874
 Cobitis splendens Erk'akan, Atalay-Ekmekçi &amp; Nalbant, 1998
 Cobitis squataeniatus Ngô, 2008
-Cobitis stenocauda Chen &amp; Chen, 2013[6]
+Cobitis stenocauda Chen &amp; Chen, 2013
 Cobitis stephanidisi Economidis, 1992
 Cobitis striata Ikeda, 1936
 Cobitis strumicae Karaman, 1955
 Cobitis taenia Linnaeus, 1758
 Cobitis takatsuensis Mizuno, 1970
-Cobitis tanaitica Băcescu &amp; Mayer, 1969[1]
+Cobitis tanaitica Băcescu &amp; Mayer, 1969
 Cobitis taurica Vasil'eva, Vasil'ev, Janko, Ráb &amp; Rábová, 2005
 Cobitis tetralineata Kim, Park &amp; Nalbant, 1999
 Cobitis trichonica Stephanidis, 1974
@@ -596,28 +610,134 @@
 Cobitis vettonica Doadrio &amp; Perdices, 1997
 Cobitis ylengensis Ngô, 2003
 Cobitis zanandreai Cavicchioli, 1965
-Cobitis zhejiangensis Son &amp; He, 2005
-Espèces récentes
-Cobitis avicennae Hamed Mousavi-Sabet, Saber Vatandoust, Hamid Reza Esmaeili, Matthias F. Geiger &amp; Jörg Freyhof, 2015[10]
-Cobitis damlae Füsun Erk'akan &amp; Filiz Özdemir, 2014 [11]
-Cobitis minamorii Jun Nakajima, 2012[8]
-Cobitis minamorii minamorii Jun Nakajima, 2012[8]
-Cobitis minamorii oumiensis Jun Nakajima, 2012[8]
-Cobitis minamorii saninensis Jun Nakajima, 2012[8]
-Cobitis minamorii tokaiensis Jun Nakajima, 2012[8]
-Cobitis minamorii yodoensis Jun Nakajima, 2012[8]
+Cobitis zhejiangensis Son &amp; He, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cobitis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cobitis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces récentes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cobitis avicennae Hamed Mousavi-Sabet, Saber Vatandoust, Hamid Reza Esmaeili, Matthias F. Geiger &amp; Jörg Freyhof, 2015
+Cobitis damlae Füsun Erk'akan &amp; Filiz Özdemir, 2014 
+Cobitis minamorii Jun Nakajima, 2012
+Cobitis minamorii minamorii Jun Nakajima, 2012
+Cobitis minamorii oumiensis Jun Nakajima, 2012
+Cobitis minamorii saninensis Jun Nakajima, 2012
+Cobitis minamorii tokaiensis Jun Nakajima, 2012
+Cobitis minamorii yodoensis Jun Nakajima, 2012
 Cobitis striata Hyozi Ikeda, 1936
-Cobitis striata fuchigamii Jun Nakajima, 2012[8]
-Cobitis striata hakataensis Jun Nakajima, 2012[8]
+Cobitis striata fuchigamii Jun Nakajima, 2012
+Cobitis striata hakataensis Jun Nakajima, 2012
 Cobitis striata striata Hyozi Ikeda, 1936
-Cobitis sakahoko Jun Nakajima &amp; Yuzuru Suzawa, 2015[12]
-Incertae sedis
-Cobitis arenae S. Y. Lin, 1934 (genre Cobitis incertain)
+Cobitis sakahoko Jun Nakajima &amp; Yuzuru Suzawa, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cobitis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cobitis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Incertae sedis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cobitis arenae S. Y. Lin, 1934 (genre Cobitis incertain)
 Cobitis guttatus V. H. Nguyễn, 2005 (espèce appartenant probablement au genre Cobitis, mais l'espèce est incertaine)
-Cobitis lachnostoma Rutter, 1897 (espèce inquirenda dans Cobitis)
-Non décrites
-Cobitis sp. nov. A 'Bosnia-Croatia' [1].
-Cobitis sp. nov. B 'Albania-Macedonia' [1].</t>
+Cobitis lachnostoma Rutter, 1897 (espèce inquirenda dans Cobitis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cobitis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cobitis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Incertae sedis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Non décrites</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cobitis sp. nov. A 'Bosnia-Croatia' .
+Cobitis sp. nov. B 'Albania-Macedonia' .</t>
         </is>
       </c>
     </row>
